--- a/data/dicionario.xlsx
+++ b/data/dicionario.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10817"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rcaratti/Desktop/CENSO2024/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rcaratti/Desktop/ABC/OficinaIACenso1/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C31FBA0B-FBD4-544C-8BB2-D1A91EF554E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B32DB8A-69A5-7F43-8A85-AB5FE6986A01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4340" yWindow="760" windowWidth="23020" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2385" uniqueCount="1063">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2384" uniqueCount="1063">
   <si>
     <t>CO_REGIAO</t>
   </si>
@@ -5478,8 +5478,8 @@
     <xf numFmtId="0" fontId="39" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="39" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5852,59 +5852,6 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1038224</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1311363</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>129049</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Gráfico 4" descr="Gesto de toque duplo estrutura de tópicos">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{315AEFBC-0485-4184-9550-7111D37BF80D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId5"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1371599" y="474202"/>
-          <a:ext cx="273139" cy="287799"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
       <xdr:colOff>1285875</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -5918,7 +5865,7 @@
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="9" name="Gráfico 8" descr="Gráfico de barras com tendência ascendente com preenchimento sólido">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6" tooltip="Baixe a Sinopse Estatística com dados consolidados por município"/>
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4" tooltip="Baixe a Sinopse Estatística com dados consolidados por município"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03011469-8E2B-EA74-A5AC-62372F821664}"/>
@@ -5930,13 +5877,13 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId8"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId6"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -6554,8 +6501,8 @@
   </sheetPr>
   <dimension ref="A1:F480"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A271" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1"/>
@@ -6572,9 +6519,7 @@
       <c r="A1" s="140" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="140" t="s">
-        <v>7</v>
-      </c>
+      <c r="B1" s="140"/>
       <c r="C1" s="143" t="s">
         <v>8</v>
       </c>
@@ -6589,12 +6534,12 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="12" customHeight="1">
-      <c r="A2" s="141"/>
-      <c r="B2" s="142"/>
+      <c r="A2" s="142"/>
+      <c r="B2" s="141"/>
       <c r="C2" s="144"/>
-      <c r="D2" s="142"/>
-      <c r="E2" s="142"/>
-      <c r="F2" s="142"/>
+      <c r="D2" s="141"/>
+      <c r="E2" s="141"/>
+      <c r="F2" s="141"/>
     </row>
     <row r="3" spans="1:6" ht="6" customHeight="1">
       <c r="A3" s="26"/>
@@ -10084,7 +10029,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="181" spans="1:6" s="2" customFormat="1" ht="32">
+    <row r="181" spans="1:6" s="2" customFormat="1" ht="16">
       <c r="A181" s="52">
         <v>178</v>
       </c>
@@ -10102,7 +10047,7 @@
       </c>
       <c r="F181" s="42"/>
     </row>
-    <row r="182" spans="1:6" s="2" customFormat="1" ht="32">
+    <row r="182" spans="1:6" s="2" customFormat="1" ht="16">
       <c r="A182" s="52">
         <v>179</v>
       </c>
@@ -10120,7 +10065,7 @@
       </c>
       <c r="F182" s="38"/>
     </row>
-    <row r="183" spans="1:6" s="2" customFormat="1" ht="32">
+    <row r="183" spans="1:6" s="2" customFormat="1" ht="16">
       <c r="A183" s="52">
         <v>180</v>
       </c>
@@ -10138,7 +10083,7 @@
       </c>
       <c r="F183" s="38"/>
     </row>
-    <row r="184" spans="1:6" s="2" customFormat="1" ht="32">
+    <row r="184" spans="1:6" s="2" customFormat="1" ht="16">
       <c r="A184" s="52">
         <v>181</v>
       </c>
@@ -10612,7 +10557,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="208" spans="1:6" s="2" customFormat="1" ht="32">
+    <row r="208" spans="1:6" s="2" customFormat="1" ht="16">
       <c r="A208" s="52">
         <v>205</v>
       </c>
@@ -10648,7 +10593,7 @@
       </c>
       <c r="F209" s="42"/>
     </row>
-    <row r="210" spans="1:6" s="2" customFormat="1" ht="32">
+    <row r="210" spans="1:6" s="2" customFormat="1" ht="16">
       <c r="A210" s="52">
         <v>207</v>
       </c>
@@ -10666,7 +10611,7 @@
       </c>
       <c r="F210" s="42"/>
     </row>
-    <row r="211" spans="1:6" s="2" customFormat="1" ht="32">
+    <row r="211" spans="1:6" s="2" customFormat="1" ht="16">
       <c r="A211" s="52">
         <v>208</v>
       </c>
@@ -10684,7 +10629,7 @@
       </c>
       <c r="F211" s="42"/>
     </row>
-    <row r="212" spans="1:6" s="2" customFormat="1" ht="32">
+    <row r="212" spans="1:6" s="2" customFormat="1" ht="16">
       <c r="A212" s="52">
         <v>209</v>
       </c>
@@ -10702,7 +10647,7 @@
       </c>
       <c r="F212" s="42"/>
     </row>
-    <row r="213" spans="1:6" s="2" customFormat="1" ht="32">
+    <row r="213" spans="1:6" s="2" customFormat="1" ht="16">
       <c r="A213" s="52">
         <v>210</v>
       </c>
@@ -10720,7 +10665,7 @@
       </c>
       <c r="F213" s="42"/>
     </row>
-    <row r="214" spans="1:6" s="2" customFormat="1" ht="32">
+    <row r="214" spans="1:6" s="2" customFormat="1" ht="16">
       <c r="A214" s="52">
         <v>211</v>
       </c>
@@ -10738,7 +10683,7 @@
       </c>
       <c r="F214" s="42"/>
     </row>
-    <row r="215" spans="1:6" s="2" customFormat="1" ht="32">
+    <row r="215" spans="1:6" s="2" customFormat="1" ht="16">
       <c r="A215" s="52">
         <v>212</v>
       </c>
@@ -10896,7 +10841,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="223" spans="1:6" s="2" customFormat="1" ht="32">
+    <row r="223" spans="1:6" s="2" customFormat="1" ht="16">
       <c r="A223" s="52">
         <v>220</v>
       </c>
@@ -10914,7 +10859,7 @@
       </c>
       <c r="F223" s="42"/>
     </row>
-    <row r="224" spans="1:6" s="2" customFormat="1" ht="32">
+    <row r="224" spans="1:6" s="2" customFormat="1" ht="16">
       <c r="A224" s="52">
         <v>221</v>
       </c>
@@ -11112,7 +11057,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="234" spans="1:6" s="2" customFormat="1" ht="32">
+    <row r="234" spans="1:6" s="2" customFormat="1" ht="16">
       <c r="A234" s="52">
         <v>231</v>
       </c>
@@ -12430,7 +12375,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="300" spans="1:6" s="2" customFormat="1" ht="32">
+    <row r="300" spans="1:6" s="2" customFormat="1" ht="26">
       <c r="A300" s="52">
         <v>297</v>
       </c>
@@ -12448,7 +12393,7 @@
       </c>
       <c r="F300" s="78"/>
     </row>
-    <row r="301" spans="1:6" s="2" customFormat="1" ht="32">
+    <row r="301" spans="1:6" s="2" customFormat="1" ht="26">
       <c r="A301" s="52">
         <v>298</v>
       </c>
@@ -12466,7 +12411,7 @@
       </c>
       <c r="F301" s="78"/>
     </row>
-    <row r="302" spans="1:6" s="2" customFormat="1" ht="32">
+    <row r="302" spans="1:6" s="2" customFormat="1" ht="26">
       <c r="A302" s="52">
         <v>299</v>
       </c>
@@ -16036,12 +15981,12 @@
       </c>
     </row>
     <row r="8" spans="1:25" ht="12" customHeight="1">
-      <c r="A8" s="141"/>
-      <c r="B8" s="142"/>
+      <c r="A8" s="142"/>
+      <c r="B8" s="141"/>
       <c r="C8" s="144"/>
-      <c r="D8" s="142"/>
-      <c r="E8" s="142"/>
-      <c r="F8" s="142"/>
+      <c r="D8" s="141"/>
+      <c r="E8" s="141"/>
+      <c r="F8" s="141"/>
       <c r="G8" s="24" t="s">
         <v>10</v>
       </c>
